--- a/리뷰 크롤링/naver_itemreview_2023-08-08_19-49.xlsx
+++ b/리뷰 크롤링/naver_itemreview_2023-08-08_19-49.xlsx
@@ -1,66 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\StarDigital-YouthMall_Chatbot_and_Solution_Project\리뷰 크롤링\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5662E840-B6D0-493C-911C-371AAED88652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>item_name</t>
-  </si>
-  <si>
-    <t>item_url</t>
-  </si>
-  <si>
-    <t>item_review</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -75,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -399,28 +420,904 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L44" sqref="L44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>item_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>item_url</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>item_review</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>7부액주음한복원피스 생활한복 여자 여름 가을 봄 철릭원피스 빅사이즈 저고리</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/dokkaebimae/products/6944392383</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>부해보이지 않고 날씬해보여서 좋네요 색감도 마음에들고벌어지지 않게 똑딱이 단추 있어서 좋아요</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>7부액주음한복원피스 생활한복 여자 여름 가을 봄 철릭원피스 빅사이즈 저고리</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/dokkaebimae/products/6944392383</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>살 타기는 싫고더운건 더 싫은 요즘 날씨에 제격인 옷이에요 땀을 잘 흘리는 편인데 잘 마르는 소재라 부담이 없고 입어보니 목 부분이 답답하지 않아 좋아요 특 양 옆 주름이 날씬하고 길어보이게 해줘서 아주 만족스럽습니다 색상 고민했는데 브라운으로 사길 잘한거 같아요</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>체리블라썸 철릭원피스 생활한복 여성 빅사이즈 반팔 한복원피스</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/dokkaebimae/products/6831318576</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>화사하게 입기 좋네요 너무 좋아요 또 살게여  그리고 사장님이 너무 친절하게 상담해주셔서 너무 놀랐어요 많이 파세요</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>말린장미철릭원피스 여자 생활한복 봄 가을 빅사이즈 저고리</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/dokkaebimae/products/6521274084</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Bbb bb bb bb b</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>물망초 안개꽃 면벨벳 철릭원피스 여자 생활한복 겨울 봄 가을 빅사이즈</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/dokkaebimae/products/6158282159</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>감사합니다 잘받았습니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>물망초 안개꽃 면벨벳 철릭원피스 여자 생활한복 겨울 봄 가을 빅사이즈</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/dokkaebimae/products/6158282159</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>아주 예쁘고 벨벳이라 고급지고 깔끔하니 따뜻해요</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>물망초 안개꽃 면벨벳 철릭원피스 여자 생활한복 겨울 봄 가을 빅사이즈</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/dokkaebimae/products/6158282159</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">마음에 쏙 들어 요 적극추천 배송도 빠르고 좋아요 </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>물망초 안개꽃 면벨벳 철릭원피스 여자 생활한복 겨울 봄 가을 빅사이즈</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/dokkaebimae/products/6158282159</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>지금은 더워서 조금 더 추워지면 입으려고합니다 가격대비 만족해요</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>물망초 안개꽃 면벨벳 철릭원피스 여자 생활한복 겨울 봄 가을 빅사이즈</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/dokkaebimae/products/6158282159</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">늦은 시간에도 친절하게 상담도 해주시고 모임때 입고갔는데 지인들이 예쁘다고해서 기분좋았습니다  블랙이라 여기저기 매치하기도 좋고 강추입니다 많이파세요 </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>들꽃 철릭원피스 여자여성 생활한복 가을 봄 한복원피스 저고리 빅사이즈</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/dokkaebimae/products/5815664771</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>주위에서 이쁘다고 하네요 너무 만족합니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>들꽃 철릭원피스 여자여성 생활한복 가을 봄 한복원피스 저고리 빅사이즈</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/dokkaebimae/products/5815664771</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>정말 이뻐요사이즈도 7788입는 데 넉넉해요다만 제 키가 153이라서 소매랑 기장은 조금 수선해야 할 꺼같아요</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>시스루면저고리 한복저고리원피스 봄 가을 생활한복 여성 여자 빅사이즈</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/dokkaebimae/products/5736711923</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>편하고 이뻐요  치마길이가 쫌 생각보다 짧아요 쫌더 길게해주심 좋겠어요 제 키는155인데도 짧아요</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>시스루면저고리 한복저고리원피스 봄 가을 생활한복 여성 여자 빅사이즈</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/dokkaebimae/products/5736711923</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>보는것도 예쁘지만 입어보니 더 좋아요</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>시스루면저고리 한복저고리원피스 봄 가을 생활한복 여성 여자 빅사이즈</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/dokkaebimae/products/5736711923</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>이쁘네요 마음에 듭니다 감사합니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>시스루면저고리 한복저고리원피스 봄 가을 생활한복 여성 여자 빅사이즈</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/dokkaebimae/products/5736711923</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>처음 입어보는 생활한복인데 활동하기 편하고 아주 마음에 쏙  듭니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>유화꽃밭철릭원피스 허리치마 여름생활한복 여성 여자 빅사이즈 한복원피스저고리</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/dokkaebimae/products/5606086204</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>연휴도 끼고 사이즈도 업해서 시간이 좀 걸렸지만도착하자마자 입어봤는데 아주 편하게 잘 맞아요편하고 넉넉하게 입으려고 사이즈 업했어요여러번 문의 드렸는데 그때마다 빠른답변해주셔서 감사했어요 잘 입을게요</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>유화꽃밭철릭원피스 허리치마 여름생활한복 여성 여자 빅사이즈 한복원피스저고리</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/dokkaebimae/products/5606086204</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>사장님진짜친절하시고 한복도이뻐요한복이 급하게 필요해져서퇴근하고 검색하고 비교해보고 하다가늦은시간에 문의글 남겼는데친절 답변해주시고 진짜감동받았어요제가키도큰편이고살도찐상태라여러모로고민이많았는데사이즈도 넉넉하고 다른 생활한복은 기장이 너무 짧았는데 여기는 디자인 자체가 길이감이 있는 편인데다기장추가까지 돼서 넘 좋았어요솔직 실물을 못보고 사는거라허접하면 어쩌지하고 걱정했는데엄마도 괜찮다고 하셨지뭐에요저는 소매랑 총장 기장추가했고허리고름 색변경했습니다입었을때편했고젤좋았던 건 저고리가 비치는 아이보리컬러라서이너를 입어야겠다 생각했는데대박 센스있게 안감이 덧대어져 있어서따로 이너를 안입어도 된다는 점이에용그리고 똑딱이단추 하나 넣어주셨더라구요사람마다 다르겠지만 저는 앞섶이 조금 처지면서 살짝 벌어지는 느낌이라담번에 입을때 똑딱이 단추해서 입으려구요행사입을거라 재촉한 감이 없지 않았는데사장님 끝까지 친절하시구덕분에행사잘치렀어용더보기</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>유화꽃밭철릭원피스 허리치마 여름생활한복 여성 여자 빅사이즈 한복원피스저고리</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/dokkaebimae/products/5606086204</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>갑자기 한복이 필요하게 되어서 찾게 되었습니다 전화로도 문의 드렸는데 수정이 가능한 범위 내에서 친절하게 상담해주셨고 받기로 한 날 정확 도착해서 감동 입어보고 예뻐서 두 번 감동 받았어요</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>도깨비매 생활한복 린넨화조저고리 저고리</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/dokkaebimae/products/4861416415</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>실물이 훨씬 이뻐요 한복의 선을 지켜면서도 아름다운 옷이네요 소장가치 100입니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>도깨비매 생활한복 린넨화조저고리 저고리</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/dokkaebimae/products/4861416415</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>린넨이라 소재감이 좋습니다 평면 패턴이라 고급스러워보이네용 다른 디자인도 구매하고싶어요</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>도깨비매 생활한복 린넨화조저고리 저고리</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/dokkaebimae/products/4861416415</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>어머님 선물 드렸는데 어깨쪽이 블편한 거 빼고는 만족하십니다 평면재단이라 그런가 봐요</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>도깨비매 생활한복 린넨화조저고리 저고리</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/dokkaebimae/products/4861416415</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>같이 산 치마랑도 잘 어울리네요 판매자분이 친절하게 상담해주셔서 좋았어용</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>도깨비매 생활한복 린넨화조저고리 저고리</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/dokkaebimae/products/4861416415</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>이 저고리 처음 봤을 때부터 계속 찜한 저고리 였어요 집에 있는 치마랑도 잘 어울리네요 사진과 같이 이뻐요</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>도깨비매 생활한복 린넨화조저고리 저고리</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/dokkaebimae/products/4861416415</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>손편지와 사은품으로 반짓고리 주신거 넘 귀여워요 판매자 분의 정성이 느껴집니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>도깨비매 생활한복 린넨화조저고리 저고리</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/dokkaebimae/products/4861416415</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">원단이 좋네요 피부에 닿는 촉감이 좋습니다 </t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>도깨비매 생활한복 린넨화조저고리 저고리</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/dokkaebimae/products/4861416415</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>원단이 패턴과 색감이 마음에 듭니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>도깨비매 생활한복 린넨화조저고리 저고리</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/dokkaebimae/products/4861416415</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>실물 깡패네요 넘 예쁩니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>도깨비매 생활한복 린넨화조저고리 저고리</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/dokkaebimae/products/4861416415</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>저고리도 이쁘고 같이 산 말기랩원피스는 정말 최곱니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>도깨비매 생활한복 노르딕플리워저고리 저고리 철릭원피스</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/dokkaebimae/products/4861247923</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>허리치마같이 흘러내림이 없어서 좋네요저고리랑 입어도 이쁘지만 전 블라우스랑 입어도 만족해요</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>도깨비매 생활한복 노르딕플리워저고리 저고리 철릭원피스</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/dokkaebimae/products/4861247923</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>원단소재감이랑 컬러가 예쁘네요화사하게 입을 수 있어서 만족합니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>도깨비매 생활한복 노르딕플리워저고리 저고리 철릭원피스</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/dokkaebimae/products/4861247923</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>랩 스타일이라 일상에서 입기좋네요컬러도 이쁩니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>도깨비매 생활한복 노르딕플리워저고리 저고리 철릭원피스</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/dokkaebimae/products/4861247923</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>코디된 말기랩원피스 까지 같이샀는데 마음에 들어요 예쁜 거 많이 올려주세요</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>도깨비매 생활한복 노르딕플리워저고리 저고리 철릭원피스</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/dokkaebimae/products/4861247923</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>도깨비매 생활한복 강추합니당 일상복이랑 코디해서 입어도 어색하지 않고 너무너무 좋아요</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>도깨비매 생활한복 노르딕플리워저고리 저고리 철릭원피스</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/dokkaebimae/products/4861247923</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>친절한 응대해 주셔서 기분 좋게 구매했어요</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>도깨비매 생활한복 노르딕플리워저고리 저고리 철릭원피스</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/dokkaebimae/products/4861247923</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>원단소재감이랑 컬러가 예쁘네요화사하게 입을 수 있어서 만족합니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>도깨비매 생활한복 노르딕플리워저고리 저고리 철릭원피스</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/dokkaebimae/products/4861247923</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>옷은 마음에 드는데 배송이 느리네요</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>도깨비매 생활한복 노르딕플리워저고리 저고리 철릭원피스</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/dokkaebimae/products/4861247923</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>사진하고 받은 제품하고 똑같아서 좋았어요</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>도깨비매 생활한복 노르딕플리워저고리 저고리 철릭원피스</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/dokkaebimae/products/4861247923</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>초가을까지 입기 좋겠네요</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>도깨비매 철릭원피스 누빔조끼 누빔조끼철릭원피스 조끼 생활한복 빅사이즈 여자 여성 겨울</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/dokkaebimae/products/4752232996</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>설에 입었는데 이쁘고 좋아요</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>도깨비매 철릭원피스 누빔조끼 누빔조끼철릭원피스 조끼 생활한복 빅사이즈 여자 여성 겨울</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/dokkaebimae/products/4752232996</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>좋아요너무 편하고 포장이 꼭 밍크옷 구매할때처럼 옷걸이에 부직포포장으로 와서 감동했어요 색상은 좀 더 진한 회색이였으면 좋았을거같아요 검정색이 생긴다면 너무 좋을거같아요</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>도깨비매 철릭원피스 누빔조끼 누빔조끼철릭원피스 조끼 생활한복 빅사이즈 여자 여성 겨울</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/dokkaebimae/products/4752232996</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>평소 한복을 즐겨입으시는 할머니께 일상에서도 편 입을 옷을 선물하고 싶어서 구매했는데 아주 좋아하셨어요 색이 조금 어둡게 염색되었다구 미리 문자를 보내주셨는데 오려 더 맘에 든다구 대만족하셨어요</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>도깨비매 철릭원피스 누빔조끼 누빔조끼철릭원피스 조끼 생활한복 빅사이즈 여자 여성 겨울</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/dokkaebimae/products/4752232996</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>두깨감이있어 좀 뻣뻣한듯한데 몇번빨면 괜찮겠지 하며 이번설에 입으려구요 동서꺼도 한벌더 구매합니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>도깨비매 철릭원피스 누빔조끼 누빔조끼철릭원피스 조끼 생활한복 빅사이즈 여자 여성 겨울</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/dokkaebimae/products/4752232996</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>만족합니다배송도 빠르고 명절때 입으려구요</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>도깨비매 철릭원피스 누빔조끼 누빔조끼철릭원피스 조끼 생활한복 빅사이즈 여자 여성 겨울</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/dokkaebimae/products/4752232996</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>핏이 꽤 부해용 빅사이즈인거 감안해도허리가좀 많이뜨네요</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>도깨비매 철릭원피스 누빔조끼 누빔조끼철릭원피스 조끼 생활한복 빅사이즈 여자 여성 겨울</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/dokkaebimae/products/4752232996</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>넉넉한 사이즈입니다 색이 사진보다 좀 짙어요</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>도깨비매 철릭원피스 누빔조끼 누빔조끼철릭원피스 조끼 생활한복 빅사이즈 여자 여성 겨울</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/dokkaebimae/products/4752232996</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>제품은 보는거랑 똑 같구여 생각보다는 좀 크게나온듯 마니파세여</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>도깨비매 철릭원피스 누빔조끼 누빔조끼철릭원피스 조끼 생활한복 빅사이즈 여자 여성 겨울</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/dokkaebimae/products/4752232996</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>원단이 도톰하고 질도괜찮구요따뜻합니다다만 허리둘레가 좀큰듯하네요 키가작아 좀더크면더이플거 같습니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>도깨비매 철릭원피스 누빔조끼 누빔조끼철릭원피스 조끼 생활한복 빅사이즈 여자 여성 겨울</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/dokkaebimae/products/4752232996</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>사이즈도 딱이거 배송도 빨라서 좋지만가격이 조금 비싸뎌</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>도깨비매 누빔배자조끼 생활한복 조끼</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/dokkaebimae/products/4743911283</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>팔움직임에 불편함이 없어서 좋았습니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>조끼저고리 원피스 생활한복 철릭원피스 저고리</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/dokkaebimae/products/4694598792</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>임신중이라 명절에 입으려고 샀어요 다음날 바로 배송받았구 너무 편하고 색감도 이쁘네요</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>조끼저고리 원피스 생활한복 철릭원피스 저고리</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/dokkaebimae/products/4694598792</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>완전 예쁩니다 평소에 입기 조금 어렵지 않을까 했는데두루두루 매일 입어도 좋을 것 같아요색도 버건디에 가까운 빨강이라 튀지 않고 예뻐요속에 샤스커트 입고 입으려구요 포장 봉투도 예쁘고 만족합니다더보기</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>